--- a/Descargas/R15_4º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Enero.xlsx
+++ b/Descargas/R15_4º Tribunal De Juicio Oral En Lo Penal De Santiago_Ingresos Causas Por Materia_2020-Enero.xlsx
@@ -267,7 +267,7 @@
     <row r="7">
       <c t="inlineStr" r="A7">
         <is>
-          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
+          <t xml:space="preserve">Apremios Ilegítimos Cometidos Por Empleados Públicos.</t>
         </is>
       </c>
       <c r="B7" s="65">
@@ -277,7 +277,7 @@
     <row r="8">
       <c t="inlineStr" r="A8">
         <is>
-          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
+          <t xml:space="preserve">Cohecho O Soborno Cometido Por Particular. Art. 250</t>
         </is>
       </c>
       <c r="B8" s="65">
@@ -287,7 +287,7 @@
     <row r="9">
       <c t="inlineStr" r="A9">
         <is>
-          <t xml:space="preserve">Homicidio.</t>
+          <t xml:space="preserve">Conduc.ebriedad Susp.lic. Art.196Y209 Inc.2 Ley.transito.</t>
         </is>
       </c>
       <c r="B9" s="65">
@@ -297,7 +297,7 @@
     <row r="10">
       <c t="inlineStr" r="A10">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
+          <t xml:space="preserve">Cuasidelito De Lesiones: Art 490, 491 Inc 2° Y 492.</t>
         </is>
       </c>
       <c r="B10" s="65">
@@ -307,180 +307,200 @@
     <row r="11">
       <c t="inlineStr" r="A11">
         <is>
-          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
+          <t xml:space="preserve">Homicidio.</t>
         </is>
       </c>
       <c r="B11" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
       <c t="inlineStr" r="A12">
         <is>
-          <t xml:space="preserve">Injuria (Accion Privada).</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De 4 A 40 Utm.</t>
         </is>
       </c>
       <c r="B12" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
       <c t="inlineStr" r="A13">
         <is>
-          <t xml:space="preserve">Lesiones Graves.</t>
+          <t xml:space="preserve">Hurto Simple Por Un Valor De Media A Menos De 4 Utm.</t>
         </is>
       </c>
       <c r="B13" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14">
       <c t="inlineStr" r="A14">
         <is>
-          <t xml:space="preserve">Lesiones Leves.</t>
+          <t xml:space="preserve">Injuria (Accion Privada).</t>
         </is>
       </c>
       <c r="B14" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15">
       <c t="inlineStr" r="A15">
         <is>
-          <t xml:space="preserve">Lesiones Menos Graves.</t>
+          <t xml:space="preserve">Lesiones Graves.</t>
         </is>
       </c>
       <c r="B15" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16">
       <c t="inlineStr" r="A16">
         <is>
-          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
+          <t xml:space="preserve">Lesiones Leves.</t>
         </is>
       </c>
       <c r="B16" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c t="inlineStr" r="A17">
         <is>
-          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
+          <t xml:space="preserve">Lesiones Menos Graves.</t>
         </is>
       </c>
       <c r="B17" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18">
       <c t="inlineStr" r="A18">
         <is>
-          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
+          <t xml:space="preserve">Otros Delitos Contra La Ley Del Transito.</t>
         </is>
       </c>
       <c r="B18" s="65">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19">
       <c t="inlineStr" r="A19">
         <is>
-          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
+          <t xml:space="preserve">Porte Ilegal De Arma De Fuego, Municiones Y Otros Sujetas A.</t>
         </is>
       </c>
       <c r="B19" s="65">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20">
       <c t="inlineStr" r="A20">
         <is>
-          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
+          <t xml:space="preserve">Posesión Tenencia O Porte De Mun Y Sust Químicas</t>
         </is>
       </c>
       <c r="B20" s="65">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
       <c t="inlineStr" r="A21">
         <is>
-          <t xml:space="preserve">Robo Con Intimidacion.</t>
+          <t xml:space="preserve">Posesión, Tenencia O Porte De Armas Sujetas A Control</t>
         </is>
       </c>
       <c r="B21" s="65">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
       <c t="inlineStr" r="A22">
         <is>
-          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
+          <t xml:space="preserve">Receptacion. Art. 456 Bis A.</t>
         </is>
       </c>
       <c r="B22" s="65">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23">
       <c t="inlineStr" r="A23">
         <is>
-          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
+          <t xml:space="preserve">Robo Con Intimidacion.</t>
         </is>
       </c>
       <c r="B23" s="65">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24">
       <c t="inlineStr" r="A24">
         <is>
-          <t xml:space="preserve">Robo Por Sorpresa.</t>
+          <t xml:space="preserve">Robo Con Violencia. Art.436 Inc. 1º 433, 438, 439.</t>
         </is>
       </c>
       <c r="B24" s="65">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
       <c t="inlineStr" r="A25">
         <is>
-          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
+          <t xml:space="preserve">Robo En Lugar No Habitado.</t>
         </is>
       </c>
       <c r="B25" s="65">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26">
       <c t="inlineStr" r="A26">
         <is>
-          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+          <t xml:space="preserve">Robo Por Sorpresa.</t>
         </is>
       </c>
       <c r="B26" s="65">
-        <v>5</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27">
       <c t="inlineStr" r="A27">
         <is>
-          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+          <t xml:space="preserve">Torturas Cometidas P/Funcionarios Publ.(Art. 150, A Inc 1°)</t>
         </is>
       </c>
       <c r="B27" s="65">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="28">
       <c t="inlineStr" r="A28">
         <is>
+          <t xml:space="preserve">Trafico De Pequeñas Cantidades (Art. 4).</t>
+        </is>
+      </c>
+      <c r="B28" s="65">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c t="inlineStr" r="A29">
+        <is>
+          <t xml:space="preserve">Trafico Ilícito De Drogas (Art. 3).</t>
+        </is>
+      </c>
+      <c r="B29" s="65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30">
+      <c t="inlineStr" r="A30">
+        <is>
           <t xml:space="preserve">Violacion  De Morada.</t>
         </is>
       </c>
-      <c r="B28" s="65">
+      <c r="B30" s="65">
         <v>1</v>
       </c>
     </row>
